--- a/CSVs/IBM Tone Analyzer Evaluation.xlsx
+++ b/CSVs/IBM Tone Analyzer Evaluation.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Desktop\Tone_Analyzer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="675">
   <si>
     <t>chunk0-02.wav</t>
   </si>
@@ -2044,8 +2049,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2074,14 +2079,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2128,7 +2142,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2160,9 +2174,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2194,6 +2209,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2369,814 +2385,1039 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B667"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C667"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>75</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
       <c r="B74" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>84</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>86</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>88</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>89</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>90</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>91</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>92</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>93</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>94</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>95</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>96</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>97</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>101</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>103</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>105</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>106</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>107</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -3184,7 +3425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -3192,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>110</v>
       </c>
@@ -3200,7 +3441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>111</v>
       </c>
@@ -3208,7 +3449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -3216,7 +3457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>113</v>
       </c>
@@ -3224,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>114</v>
       </c>
@@ -3232,7 +3473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -3240,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -3248,7 +3489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -3256,7 +3497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>118</v>
       </c>
@@ -3264,7 +3505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -3272,7 +3513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -3280,7 +3521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -3288,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -3296,7 +3537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>123</v>
       </c>
@@ -3304,7 +3545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>124</v>
       </c>
@@ -3312,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>125</v>
       </c>
@@ -3320,7 +3561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>126</v>
       </c>
@@ -3328,7 +3569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>127</v>
       </c>
@@ -3336,7 +3577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -3344,7 +3585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>129</v>
       </c>
@@ -3352,7 +3593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>130</v>
       </c>
@@ -3360,7 +3601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>131</v>
       </c>
@@ -3368,7 +3609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -3376,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>133</v>
       </c>
@@ -3384,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>134</v>
       </c>
@@ -3392,7 +3633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>135</v>
       </c>
@@ -3400,7 +3641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -3408,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>137</v>
       </c>
@@ -3416,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -3424,7 +3665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>139</v>
       </c>
@@ -3432,7 +3673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>140</v>
       </c>
@@ -3440,7 +3681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -3448,7 +3689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>142</v>
       </c>
@@ -3456,7 +3697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>143</v>
       </c>
@@ -3464,7 +3705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -3472,7 +3713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>145</v>
       </c>
@@ -3480,7 +3721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>146</v>
       </c>
@@ -3488,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -3496,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>148</v>
       </c>
@@ -3504,7 +3745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>149</v>
       </c>
@@ -3512,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>150</v>
       </c>
@@ -3520,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -3528,7 +3769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -3536,7 +3777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>153</v>
       </c>
@@ -3544,7 +3785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>154</v>
       </c>
@@ -3552,7 +3793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>155</v>
       </c>
@@ -3560,7 +3801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -3568,7 +3809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>157</v>
       </c>
@@ -3576,7 +3817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>158</v>
       </c>
@@ -3584,7 +3825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>159</v>
       </c>
@@ -3592,7 +3833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>160</v>
       </c>
@@ -3600,7 +3841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>161</v>
       </c>
@@ -3608,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>162</v>
       </c>
@@ -3616,7 +3857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -3624,7 +3865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>164</v>
       </c>
@@ -3632,7 +3873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -3640,7 +3881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -3648,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -3656,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -3664,7 +3905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -3672,7 +3913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>170</v>
       </c>
@@ -3680,7 +3921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -3688,7 +3929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -3696,7 +3937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>173</v>
       </c>
@@ -3704,7 +3945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>174</v>
       </c>
@@ -3712,7 +3953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>175</v>
       </c>
@@ -3720,7 +3961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>176</v>
       </c>
@@ -3728,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>177</v>
       </c>
@@ -3736,7 +3977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>178</v>
       </c>
@@ -3744,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>179</v>
       </c>
@@ -3752,7 +3993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -3760,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>181</v>
       </c>
@@ -3768,7 +4009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>182</v>
       </c>
@@ -3776,7 +4017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>183</v>
       </c>
@@ -3784,7 +4025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -3792,7 +4033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>185</v>
       </c>
@@ -3800,7 +4041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>186</v>
       </c>
@@ -3808,7 +4049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>187</v>
       </c>
@@ -3816,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>188</v>
       </c>
@@ -3824,7 +4065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>189</v>
       </c>
@@ -3832,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>190</v>
       </c>
@@ -3840,7 +4081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>191</v>
       </c>
@@ -3848,7 +4089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>192</v>
       </c>
@@ -3856,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>193</v>
       </c>
@@ -3864,7 +4105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>194</v>
       </c>
@@ -3872,7 +4113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>195</v>
       </c>
@@ -3880,7 +4121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>196</v>
       </c>
@@ -3888,7 +4129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>197</v>
       </c>
@@ -3896,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>198</v>
       </c>
@@ -3904,7 +4145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>199</v>
       </c>
@@ -3912,7 +4153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>200</v>
       </c>
@@ -3920,7 +4161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>201</v>
       </c>
@@ -3928,7 +4169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>202</v>
       </c>
@@ -3936,7 +4177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>203</v>
       </c>
@@ -3944,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>204</v>
       </c>
@@ -3952,7 +4193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>205</v>
       </c>
@@ -3960,7 +4201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>206</v>
       </c>
@@ -3968,7 +4209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>207</v>
       </c>
@@ -3976,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>208</v>
       </c>
@@ -3984,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>209</v>
       </c>
@@ -3992,7 +4233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>210</v>
       </c>
@@ -4000,7 +4241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>211</v>
       </c>
@@ -4008,7 +4249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>212</v>
       </c>
@@ -4016,7 +4257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>213</v>
       </c>
@@ -4024,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>214</v>
       </c>
@@ -4032,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>215</v>
       </c>
@@ -4040,7 +4281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>216</v>
       </c>
@@ -4048,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>217</v>
       </c>
@@ -4056,7 +4297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>218</v>
       </c>
@@ -4064,7 +4305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>219</v>
       </c>
@@ -4072,7 +4313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>220</v>
       </c>
@@ -4080,7 +4321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>221</v>
       </c>
@@ -4088,7 +4329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>222</v>
       </c>
@@ -4096,7 +4337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>223</v>
       </c>
@@ -4104,7 +4345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -4112,7 +4353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>225</v>
       </c>
@@ -4120,7 +4361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>226</v>
       </c>
@@ -4128,7 +4369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>227</v>
       </c>
@@ -4136,7 +4377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>228</v>
       </c>
@@ -4144,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>229</v>
       </c>
@@ -4152,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>230</v>
       </c>
@@ -4160,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>231</v>
       </c>
@@ -4168,7 +4409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>232</v>
       </c>
@@ -4176,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>233</v>
       </c>
@@ -4184,7 +4425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>234</v>
       </c>
@@ -4192,7 +4433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>235</v>
       </c>
@@ -4200,7 +4441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>236</v>
       </c>
@@ -4208,7 +4449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>237</v>
       </c>
@@ -4216,7 +4457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>238</v>
       </c>
@@ -4224,7 +4465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>239</v>
       </c>
@@ -4232,7 +4473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>240</v>
       </c>
@@ -4240,7 +4481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>241</v>
       </c>
@@ -4248,7 +4489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>242</v>
       </c>
@@ -4256,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>243</v>
       </c>
@@ -4264,7 +4505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>244</v>
       </c>
@@ -4272,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>245</v>
       </c>
@@ -4280,7 +4521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>246</v>
       </c>
@@ -4288,7 +4529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>247</v>
       </c>
@@ -4296,7 +4537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>248</v>
       </c>
@@ -4304,7 +4545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>249</v>
       </c>
@@ -4312,7 +4553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>250</v>
       </c>
@@ -4320,7 +4561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>251</v>
       </c>
@@ -4328,7 +4569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>252</v>
       </c>
@@ -4336,7 +4577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>253</v>
       </c>
@@ -4344,7 +4585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>254</v>
       </c>
@@ -4352,7 +4593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>255</v>
       </c>
@@ -4360,7 +4601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>256</v>
       </c>
@@ -4368,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>257</v>
       </c>
@@ -4376,7 +4617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>258</v>
       </c>
@@ -4384,7 +4625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>259</v>
       </c>
@@ -4392,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>260</v>
       </c>
@@ -4400,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>261</v>
       </c>
@@ -4408,7 +4649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>262</v>
       </c>
@@ -4416,7 +4657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>263</v>
       </c>
@@ -4424,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>264</v>
       </c>
@@ -4432,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>265</v>
       </c>
@@ -4440,7 +4681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>266</v>
       </c>
@@ -4448,7 +4689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>267</v>
       </c>
@@ -4456,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>268</v>
       </c>
@@ -4464,7 +4705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>269</v>
       </c>
@@ -4472,7 +4713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>270</v>
       </c>
@@ -4480,7 +4721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>271</v>
       </c>
@@ -4488,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>272</v>
       </c>
@@ -4496,7 +4737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>273</v>
       </c>
@@ -4504,7 +4745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>274</v>
       </c>
@@ -4512,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>275</v>
       </c>
@@ -4520,7 +4761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>276</v>
       </c>
@@ -4528,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>277</v>
       </c>
@@ -4536,7 +4777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>278</v>
       </c>
@@ -4544,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>279</v>
       </c>
@@ -4552,7 +4793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>280</v>
       </c>
@@ -4560,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>281</v>
       </c>
@@ -4568,7 +4809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>282</v>
       </c>
@@ -4576,7 +4817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>283</v>
       </c>
@@ -4584,7 +4825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>284</v>
       </c>
@@ -4592,7 +4833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>285</v>
       </c>
@@ -4600,7 +4841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>286</v>
       </c>
@@ -4608,7 +4849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>287</v>
       </c>
@@ -4616,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>288</v>
       </c>
@@ -4624,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>289</v>
       </c>
@@ -4632,7 +4873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>290</v>
       </c>
@@ -4640,7 +4881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>291</v>
       </c>
@@ -4648,7 +4889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>292</v>
       </c>
@@ -4656,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>293</v>
       </c>
@@ -4664,7 +4905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>294</v>
       </c>
@@ -4672,7 +4913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>295</v>
       </c>
@@ -4680,7 +4921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>296</v>
       </c>
@@ -4688,7 +4929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>297</v>
       </c>
@@ -4696,7 +4937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>298</v>
       </c>
@@ -4704,7 +4945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>299</v>
       </c>
@@ -4712,7 +4953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>300</v>
       </c>
@@ -4720,7 +4961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>301</v>
       </c>
@@ -4728,7 +4969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>302</v>
       </c>
@@ -4736,7 +4977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>303</v>
       </c>
@@ -4744,7 +4985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>304</v>
       </c>
@@ -4752,7 +4993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>305</v>
       </c>
@@ -4760,7 +5001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>306</v>
       </c>
@@ -4768,7 +5009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>307</v>
       </c>
@@ -4776,7 +5017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>308</v>
       </c>
@@ -4784,7 +5025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>309</v>
       </c>
@@ -4792,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>310</v>
       </c>
@@ -4800,7 +5041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>311</v>
       </c>
@@ -4808,7 +5049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>312</v>
       </c>
@@ -4816,7 +5057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>313</v>
       </c>
@@ -4824,7 +5065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>314</v>
       </c>
@@ -4832,7 +5073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>315</v>
       </c>
@@ -4840,7 +5081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>316</v>
       </c>
@@ -4848,7 +5089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>317</v>
       </c>
@@ -4856,7 +5097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>318</v>
       </c>
@@ -4864,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>319</v>
       </c>
@@ -4872,7 +5113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>320</v>
       </c>
@@ -4880,7 +5121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>321</v>
       </c>
@@ -4888,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>322</v>
       </c>
@@ -4896,7 +5137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>323</v>
       </c>
@@ -4904,7 +5145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>324</v>
       </c>
@@ -4912,7 +5153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>325</v>
       </c>
@@ -4920,7 +5161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>326</v>
       </c>
@@ -4928,7 +5169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>327</v>
       </c>
@@ -4936,7 +5177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>328</v>
       </c>
@@ -4944,7 +5185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>329</v>
       </c>
@@ -4952,7 +5193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>330</v>
       </c>
@@ -4960,7 +5201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>331</v>
       </c>
@@ -4968,7 +5209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>332</v>
       </c>
@@ -4976,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>333</v>
       </c>
@@ -4984,7 +5225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>334</v>
       </c>
@@ -4992,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>335</v>
       </c>
@@ -5000,7 +5241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>336</v>
       </c>
@@ -5008,7 +5249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>337</v>
       </c>
@@ -5016,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>338</v>
       </c>
@@ -5024,7 +5265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>339</v>
       </c>
@@ -5032,7 +5273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>340</v>
       </c>
@@ -5040,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>341</v>
       </c>
@@ -5048,7 +5289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>342</v>
       </c>
@@ -5056,7 +5297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>343</v>
       </c>
@@ -5064,7 +5305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>344</v>
       </c>
@@ -5072,7 +5313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>345</v>
       </c>
@@ -5080,7 +5321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>346</v>
       </c>
@@ -5088,7 +5329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>347</v>
       </c>
@@ -5096,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>348</v>
       </c>
@@ -5104,7 +5345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>349</v>
       </c>
@@ -5112,7 +5353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>350</v>
       </c>
@@ -5120,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>351</v>
       </c>
@@ -5128,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>352</v>
       </c>
@@ -5136,7 +5377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>353</v>
       </c>
@@ -5144,7 +5385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>354</v>
       </c>
@@ -5152,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>355</v>
       </c>
@@ -5160,7 +5401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>356</v>
       </c>
@@ -5168,7 +5409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>357</v>
       </c>
@@ -5176,7 +5417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>358</v>
       </c>
@@ -5184,7 +5425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>359</v>
       </c>
@@ -5192,7 +5433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>360</v>
       </c>
@@ -5200,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>361</v>
       </c>
@@ -5208,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>362</v>
       </c>
@@ -5216,7 +5457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>363</v>
       </c>
@@ -5224,7 +5465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>364</v>
       </c>
@@ -5232,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>365</v>
       </c>
@@ -5240,7 +5481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>366</v>
       </c>
@@ -5248,7 +5489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>367</v>
       </c>
@@ -5256,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>368</v>
       </c>
@@ -5264,7 +5505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>369</v>
       </c>
@@ -5272,7 +5513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>370</v>
       </c>
@@ -5280,7 +5521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>371</v>
       </c>
@@ -5288,7 +5529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>372</v>
       </c>
@@ -5296,7 +5537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>373</v>
       </c>
@@ -5304,7 +5545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>374</v>
       </c>
@@ -5312,7 +5553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>375</v>
       </c>
@@ -5320,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>376</v>
       </c>
@@ -5328,7 +5569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>377</v>
       </c>
@@ -5336,7 +5577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>378</v>
       </c>
@@ -5344,7 +5585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>379</v>
       </c>
@@ -5352,7 +5593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>380</v>
       </c>
@@ -5360,7 +5601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>381</v>
       </c>
@@ -5368,7 +5609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>382</v>
       </c>
@@ -5376,7 +5617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>383</v>
       </c>
@@ -5384,7 +5625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>384</v>
       </c>
@@ -5392,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>385</v>
       </c>
@@ -5400,7 +5641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>386</v>
       </c>
@@ -5408,7 +5649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>387</v>
       </c>
@@ -5416,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>388</v>
       </c>
@@ -5424,7 +5665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>389</v>
       </c>
@@ -5432,7 +5673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>390</v>
       </c>
@@ -5440,7 +5681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>391</v>
       </c>
@@ -5448,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>392</v>
       </c>
@@ -5456,7 +5697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>393</v>
       </c>
@@ -5464,7 +5705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>394</v>
       </c>
@@ -5472,7 +5713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>395</v>
       </c>
@@ -5480,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>396</v>
       </c>
@@ -5488,7 +5729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>397</v>
       </c>
@@ -5496,7 +5737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>398</v>
       </c>
@@ -5504,7 +5745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>399</v>
       </c>
@@ -5512,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>400</v>
       </c>
@@ -5520,7 +5761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>401</v>
       </c>
@@ -5528,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>402</v>
       </c>
@@ -5536,7 +5777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>403</v>
       </c>
@@ -5544,7 +5785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>404</v>
       </c>
@@ -5552,7 +5793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>405</v>
       </c>
@@ -5560,7 +5801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>406</v>
       </c>
@@ -5568,7 +5809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>407</v>
       </c>
@@ -5576,7 +5817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>408</v>
       </c>
@@ -5584,7 +5825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>409</v>
       </c>
@@ -5592,7 +5833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>410</v>
       </c>
@@ -5600,7 +5841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>411</v>
       </c>
@@ -5608,7 +5849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>412</v>
       </c>
@@ -5616,7 +5857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>413</v>
       </c>
@@ -5624,7 +5865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>414</v>
       </c>
@@ -5632,7 +5873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>415</v>
       </c>
@@ -5640,7 +5881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>416</v>
       </c>
@@ -5648,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>417</v>
       </c>
@@ -5656,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>418</v>
       </c>
@@ -5664,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>419</v>
       </c>
@@ -5672,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>420</v>
       </c>
@@ -5680,7 +5921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>421</v>
       </c>
@@ -5688,7 +5929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>422</v>
       </c>
@@ -5696,7 +5937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>423</v>
       </c>
@@ -5704,7 +5945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>424</v>
       </c>
@@ -5712,7 +5953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>425</v>
       </c>
@@ -5720,7 +5961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>426</v>
       </c>
@@ -5728,7 +5969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>427</v>
       </c>
@@ -5736,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>428</v>
       </c>
@@ -5744,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>429</v>
       </c>
@@ -5752,7 +5993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>430</v>
       </c>
@@ -5760,7 +6001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>431</v>
       </c>
@@ -5768,7 +6009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>432</v>
       </c>
@@ -5776,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>433</v>
       </c>
@@ -5784,7 +6025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>434</v>
       </c>
@@ -5792,7 +6033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>435</v>
       </c>
@@ -5800,7 +6041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>436</v>
       </c>
@@ -5808,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>437</v>
       </c>
@@ -5816,7 +6057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>438</v>
       </c>
@@ -5824,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>439</v>
       </c>
@@ -5832,7 +6073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>440</v>
       </c>
@@ -5840,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>441</v>
       </c>
@@ -5848,7 +6089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>442</v>
       </c>
@@ -5856,7 +6097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>443</v>
       </c>
@@ -5864,7 +6105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>444</v>
       </c>
@@ -5872,7 +6113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>445</v>
       </c>
@@ -5880,7 +6121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>446</v>
       </c>
@@ -5888,7 +6129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>447</v>
       </c>
@@ -5896,7 +6137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>448</v>
       </c>
@@ -5904,7 +6145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>449</v>
       </c>
@@ -5912,7 +6153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>450</v>
       </c>
@@ -5920,7 +6161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>451</v>
       </c>
@@ -5928,7 +6169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>452</v>
       </c>
@@ -5936,7 +6177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>453</v>
       </c>
@@ -5944,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>454</v>
       </c>
@@ -5952,7 +6193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>455</v>
       </c>
@@ -5960,7 +6201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>456</v>
       </c>
@@ -5968,7 +6209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>457</v>
       </c>
@@ -5976,7 +6217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>458</v>
       </c>
@@ -5984,7 +6225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>459</v>
       </c>
@@ -5992,7 +6233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>460</v>
       </c>
@@ -6000,7 +6241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>461</v>
       </c>
@@ -6008,7 +6249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>462</v>
       </c>
@@ -6016,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>463</v>
       </c>
@@ -6024,7 +6265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>464</v>
       </c>
@@ -6032,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>465</v>
       </c>
@@ -6040,7 +6281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>466</v>
       </c>
@@ -6048,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>467</v>
       </c>
@@ -6056,7 +6297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>468</v>
       </c>
@@ -6064,7 +6305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>469</v>
       </c>
@@ -6072,7 +6313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>470</v>
       </c>
@@ -6080,7 +6321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>471</v>
       </c>
@@ -6088,7 +6329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>472</v>
       </c>
@@ -6096,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>473</v>
       </c>
@@ -6104,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>474</v>
       </c>
@@ -6112,7 +6353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>475</v>
       </c>
@@ -6120,7 +6361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>476</v>
       </c>
@@ -6128,7 +6369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>477</v>
       </c>
@@ -6136,7 +6377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>478</v>
       </c>
@@ -6144,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>479</v>
       </c>
@@ -6152,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>480</v>
       </c>
@@ -6160,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>481</v>
       </c>
@@ -6168,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>482</v>
       </c>
@@ -6176,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>483</v>
       </c>
@@ -6184,7 +6425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>484</v>
       </c>
@@ -6192,7 +6433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>485</v>
       </c>
@@ -6200,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>486</v>
       </c>
@@ -6208,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>487</v>
       </c>
@@ -6216,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>488</v>
       </c>
@@ -6224,7 +6465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>489</v>
       </c>
@@ -6232,7 +6473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>490</v>
       </c>
@@ -6240,7 +6481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>491</v>
       </c>
@@ -6248,7 +6489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>492</v>
       </c>
@@ -6256,7 +6497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>493</v>
       </c>
@@ -6264,7 +6505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>494</v>
       </c>
@@ -6272,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>495</v>
       </c>
@@ -6280,7 +6521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>496</v>
       </c>
@@ -6288,7 +6529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>497</v>
       </c>
@@ -6296,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>498</v>
       </c>
@@ -6304,7 +6545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>499</v>
       </c>
@@ -6312,7 +6553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>500</v>
       </c>
@@ -6320,7 +6561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>501</v>
       </c>
@@ -6328,7 +6569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>502</v>
       </c>
@@ -6336,7 +6577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>503</v>
       </c>
@@ -6344,7 +6585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>504</v>
       </c>
@@ -6352,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>505</v>
       </c>
@@ -6360,7 +6601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>506</v>
       </c>
@@ -6368,7 +6609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>507</v>
       </c>
@@ -6376,7 +6617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>508</v>
       </c>
@@ -6384,7 +6625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>509</v>
       </c>
@@ -6392,7 +6633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>510</v>
       </c>
@@ -6400,7 +6641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>511</v>
       </c>
@@ -6408,7 +6649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>512</v>
       </c>
@@ -6416,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>513</v>
       </c>
@@ -6424,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>514</v>
       </c>
@@ -6432,7 +6673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>515</v>
       </c>
@@ -6440,7 +6681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>516</v>
       </c>
@@ -6448,7 +6689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>517</v>
       </c>
@@ -6456,7 +6697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>518</v>
       </c>
@@ -6464,7 +6705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>519</v>
       </c>
@@ -6472,7 +6713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>520</v>
       </c>
@@ -6480,7 +6721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>521</v>
       </c>
@@ -6488,7 +6729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>522</v>
       </c>
@@ -6496,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>523</v>
       </c>
@@ -6504,7 +6745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>524</v>
       </c>
@@ -6512,7 +6753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>525</v>
       </c>
@@ -6520,7 +6761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>526</v>
       </c>
@@ -6528,7 +6769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>527</v>
       </c>
@@ -6536,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>528</v>
       </c>
@@ -6544,7 +6785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>529</v>
       </c>
@@ -6552,7 +6793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>530</v>
       </c>
@@ -6560,7 +6801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>531</v>
       </c>
@@ -6568,7 +6809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>532</v>
       </c>
@@ -6576,7 +6817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>533</v>
       </c>
@@ -6584,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>534</v>
       </c>
@@ -6592,7 +6833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="528" spans="1:2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>535</v>
       </c>
@@ -6600,7 +6841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="529" spans="1:2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>536</v>
       </c>
@@ -6608,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>537</v>
       </c>
@@ -6616,7 +6857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>538</v>
       </c>
@@ -6624,7 +6865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>539</v>
       </c>
@@ -6632,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>540</v>
       </c>
@@ -6640,7 +6881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>541</v>
       </c>
@@ -6648,7 +6889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>542</v>
       </c>
@@ -6656,7 +6897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>543</v>
       </c>
@@ -6664,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>544</v>
       </c>
@@ -6672,7 +6913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="538" spans="1:2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>545</v>
       </c>
@@ -6680,7 +6921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>546</v>
       </c>
@@ -6688,7 +6929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540" spans="1:2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>547</v>
       </c>
@@ -6696,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>548</v>
       </c>
@@ -6704,7 +6945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>549</v>
       </c>
@@ -6712,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>550</v>
       </c>
@@ -6720,7 +6961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>551</v>
       </c>
@@ -6728,7 +6969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>552</v>
       </c>
@@ -6736,7 +6977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>553</v>
       </c>
@@ -6744,7 +6985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>554</v>
       </c>
@@ -6752,7 +6993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>555</v>
       </c>
@@ -6760,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>556</v>
       </c>
@@ -6768,7 +7009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>557</v>
       </c>
@@ -6776,7 +7017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>558</v>
       </c>
@@ -6784,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>559</v>
       </c>
@@ -6792,7 +7033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>560</v>
       </c>
@@ -6800,7 +7041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="554" spans="1:2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>561</v>
       </c>
@@ -6808,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>562</v>
       </c>
@@ -6816,7 +7057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>563</v>
       </c>
@@ -6824,7 +7065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>564</v>
       </c>
@@ -6832,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>565</v>
       </c>
@@ -6840,7 +7081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>566</v>
       </c>
@@ -6848,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>567</v>
       </c>
@@ -6856,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>568</v>
       </c>
@@ -6864,7 +7105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>569</v>
       </c>
@@ -6872,7 +7113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>570</v>
       </c>
@@ -6880,7 +7121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="564" spans="1:2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>571</v>
       </c>
@@ -6888,7 +7129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>572</v>
       </c>
@@ -6896,7 +7137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>573</v>
       </c>
@@ -6904,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>574</v>
       </c>
@@ -6912,7 +7153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="568" spans="1:2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>575</v>
       </c>
@@ -6920,7 +7161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>576</v>
       </c>
@@ -6928,7 +7169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>577</v>
       </c>
@@ -6936,7 +7177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="571" spans="1:2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>578</v>
       </c>
@@ -6944,7 +7185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>579</v>
       </c>
@@ -6952,7 +7193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>580</v>
       </c>
@@ -6960,7 +7201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>581</v>
       </c>
@@ -6968,7 +7209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>582</v>
       </c>
@@ -6976,7 +7217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>583</v>
       </c>
@@ -6984,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>584</v>
       </c>
@@ -6992,7 +7233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>585</v>
       </c>
@@ -7000,7 +7241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>586</v>
       </c>
@@ -7008,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>587</v>
       </c>
@@ -7016,7 +7257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>588</v>
       </c>
@@ -7024,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>589</v>
       </c>
@@ -7032,7 +7273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="583" spans="1:2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>590</v>
       </c>
@@ -7040,7 +7281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="584" spans="1:2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>591</v>
       </c>
@@ -7048,7 +7289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="585" spans="1:2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>592</v>
       </c>
@@ -7056,7 +7297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>593</v>
       </c>
@@ -7064,7 +7305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="587" spans="1:2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>594</v>
       </c>
@@ -7072,7 +7313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>595</v>
       </c>
@@ -7080,7 +7321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="589" spans="1:2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>596</v>
       </c>
@@ -7088,7 +7329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="590" spans="1:2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>597</v>
       </c>
@@ -7096,7 +7337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="591" spans="1:2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>598</v>
       </c>
@@ -7104,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>599</v>
       </c>
@@ -7112,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>600</v>
       </c>
@@ -7120,7 +7361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>601</v>
       </c>
@@ -7128,7 +7369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="595" spans="1:2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>602</v>
       </c>
@@ -7136,7 +7377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="596" spans="1:2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>603</v>
       </c>
@@ -7144,7 +7385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="597" spans="1:2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>604</v>
       </c>
@@ -7152,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>605</v>
       </c>
@@ -7160,7 +7401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>606</v>
       </c>
@@ -7168,7 +7409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>607</v>
       </c>
@@ -7176,7 +7417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>608</v>
       </c>
@@ -7184,7 +7425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="602" spans="1:2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>609</v>
       </c>
@@ -7192,7 +7433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>610</v>
       </c>
@@ -7200,7 +7441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="604" spans="1:2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>611</v>
       </c>
@@ -7208,7 +7449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>612</v>
       </c>
@@ -7216,7 +7457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="606" spans="1:2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>613</v>
       </c>
@@ -7224,7 +7465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="607" spans="1:2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>614</v>
       </c>
@@ -7232,7 +7473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>615</v>
       </c>
@@ -7240,7 +7481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="609" spans="1:2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>616</v>
       </c>
@@ -7248,7 +7489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>617</v>
       </c>
@@ -7256,7 +7497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>618</v>
       </c>
@@ -7264,7 +7505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>619</v>
       </c>
@@ -7272,7 +7513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>620</v>
       </c>
@@ -7280,7 +7521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>621</v>
       </c>
@@ -7288,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>622</v>
       </c>
@@ -7296,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>623</v>
       </c>
@@ -7304,7 +7545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="617" spans="1:2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>624</v>
       </c>
@@ -7312,7 +7553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="618" spans="1:2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>625</v>
       </c>
@@ -7320,7 +7561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="619" spans="1:2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>626</v>
       </c>
@@ -7328,7 +7569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="620" spans="1:2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>627</v>
       </c>
@@ -7336,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>628</v>
       </c>
@@ -7344,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>629</v>
       </c>
@@ -7352,7 +7593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>630</v>
       </c>
@@ -7360,7 +7601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>631</v>
       </c>
@@ -7368,7 +7609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>632</v>
       </c>
@@ -7376,7 +7617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>633</v>
       </c>
@@ -7384,7 +7625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>634</v>
       </c>
@@ -7392,7 +7633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="628" spans="1:2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>635</v>
       </c>
@@ -7400,7 +7641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="629" spans="1:2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>636</v>
       </c>
@@ -7408,7 +7649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="630" spans="1:2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>637</v>
       </c>
@@ -7416,7 +7657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>638</v>
       </c>
@@ -7424,7 +7665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>639</v>
       </c>
@@ -7432,7 +7673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>640</v>
       </c>
@@ -7440,7 +7681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>641</v>
       </c>
@@ -7448,7 +7689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>642</v>
       </c>
@@ -7456,7 +7697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>643</v>
       </c>
@@ -7464,7 +7705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>644</v>
       </c>
@@ -7472,7 +7713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="1:2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>645</v>
       </c>
@@ -7480,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>646</v>
       </c>
@@ -7488,7 +7729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>647</v>
       </c>
@@ -7496,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>648</v>
       </c>
@@ -7504,7 +7745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>649</v>
       </c>
@@ -7512,7 +7753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>650</v>
       </c>
@@ -7520,7 +7761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="644" spans="1:2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>651</v>
       </c>
@@ -7528,7 +7769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="645" spans="1:2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>652</v>
       </c>
@@ -7536,7 +7777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="646" spans="1:2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>653</v>
       </c>
@@ -7544,7 +7785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="647" spans="1:2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>654</v>
       </c>
@@ -7552,7 +7793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>655</v>
       </c>
@@ -7560,7 +7801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>656</v>
       </c>
@@ -7568,7 +7809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>657</v>
       </c>
@@ -7576,7 +7817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>658</v>
       </c>
@@ -7584,7 +7825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>659</v>
       </c>
@@ -7592,7 +7833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>660</v>
       </c>
@@ -7600,7 +7841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>661</v>
       </c>
@@ -7608,7 +7849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="655" spans="1:2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>662</v>
       </c>
@@ -7616,7 +7857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="656" spans="1:2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>663</v>
       </c>
@@ -7624,7 +7865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="657" spans="1:2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>664</v>
       </c>
@@ -7632,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>665</v>
       </c>
@@ -7640,7 +7881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>666</v>
       </c>
@@ -7648,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>667</v>
       </c>
@@ -7656,7 +7897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="1:2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>668</v>
       </c>
@@ -7664,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>669</v>
       </c>
@@ -7672,7 +7913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>670</v>
       </c>
@@ -7680,7 +7921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="664" spans="1:2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>671</v>
       </c>
@@ -7688,7 +7929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="665" spans="1:2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>672</v>
       </c>
@@ -7696,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>673</v>
       </c>
@@ -7704,7 +7945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="667" spans="1:2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>674</v>
       </c>
